--- a/medicine/Mort/Écorchement/Écorchement.xlsx
+++ b/medicine/Mort/Écorchement/Écorchement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89corchement</t>
+          <t>Écorchement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorchement est l'action de dépouiller un animal ou un être humain de sa peau[1]. Cette technique peut être utilisée sur un humain comme une méthode de torture visant à le châtier ou à obtenir des aveux ; elle consiste à retirer l'entièreté ou une partie de la peau d’une personne condamnée (épiderme, derme, hypoderme), jusqu'au fascia musculaire (enveloppe des muscles)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorchement est l'action de dépouiller un animal ou un être humain de sa peau. Cette technique peut être utilisée sur un humain comme une méthode de torture visant à le châtier ou à obtenir des aveux ; elle consiste à retirer l'entièreté ou une partie de la peau d’une personne condamnée (épiderme, derme, hypoderme), jusqu'au fascia musculaire (enveloppe des muscles).
 Le bourreau découpait avec un objet tranchant le dessous des pieds, le sommet du crâne ou toute autre partie du corps et tirait sur la peau pour l'arracher. Sa chair ainsi mise à nue, le condamné pouvait mourir après plusieurs heures.
 On trouve une de ses premières traces dans la mythologie grecque avec le martyre de Marsyas ou dans les Métamorphoses d'Ovide. Cette manière de supplicier était surtout utilisée durant l’Antiquité ou au Moyen Âge, en différents endroits du globe, notamment chez les peuples précolombiens, au Moyen-Orient ou chez les Romains. La torture par écorchement a été abolie en France en 1789 au moment de la Révolution française. Elle a été abolie en Angleterre en 1689 sous le règne de Guillaume III et Marie III. En revanche, aux États-Unis, l’abolition a été effective dans la plupart des États au cours du XIXe siècle.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89corchement</t>
+          <t>Écorchement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Occurrences historiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la répression d’une révolte par le roi assyrien Assurnasirpal II, ce dernier aurait fait écorcher les chefs de la révolte et tapisser des murs avec leurs peaux[3]. Une légende veut que l'empereur romain Valérien aurait été écorché vif et sa peau teinte en pourpre impériale[4].
-Chez les Aztèques, dont le nom du dieu Xipe Totec signifie en nahuatl « seigneur des écorchés » ou « notre seigneur l’écorché », la fête du Tlacaxipehualiztli[5] impliquait d'enlever la peau des sacrifiés pour la revêtir au cours des célébrations[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la répression d’une révolte par le roi assyrien Assurnasirpal II, ce dernier aurait fait écorcher les chefs de la révolte et tapisser des murs avec leurs peaux. Une légende veut que l'empereur romain Valérien aurait été écorché vif et sa peau teinte en pourpre impériale.
+Chez les Aztèques, dont le nom du dieu Xipe Totec signifie en nahuatl « seigneur des écorchés » ou « notre seigneur l’écorché », la fête du Tlacaxipehualiztli impliquait d'enlever la peau des sacrifiés pour la revêtir au cours des célébrations.
 En Chine, parmi les multiples supplices du lingchi, figure l'écorchement à mort du condamné.
-En décembre 1794, un chirurgien-soldat républicain aurait prélevé des peaux humaines sur des cadavres flottants dans la Loire à la suite des combats du Mans[7],[8].
-Pendant la Seconde Guerre mondiale, des allégations ont circulé selon lesquelles les nazis avaient eu recours à l'écorchement sur des prisonniers de camps de concentration pour créer des abat-jour en peau humaine[9].
+En décembre 1794, un chirurgien-soldat républicain aurait prélevé des peaux humaines sur des cadavres flottants dans la Loire à la suite des combats du Mans,.
+Pendant la Seconde Guerre mondiale, des allégations ont circulé selon lesquelles les nazis avaient eu recours à l'écorchement sur des prisonniers de camps de concentration pour créer des abat-jour en peau humaine.
 Parmi les victimes notables de l'écorchement figurent le satyre Marsyas (mythologie grecque), le juge Sisamnès (VIe siècle av. J.-C.), Saint Barthélémy (Ier siècle), les frères Philippe et Gauthier d'Aunay (XIVe siècle), le gouverneur Marcantonio Bragadin (XVIe siècle) et le sultan Muhammad al-Mutawakkil (XVIe siècle) (écorché après sa mort).
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89corchement</t>
+          <t>Écorchement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Science et art</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours du XIXe siècle, les artistes puis les scientifiques étudient la figure de l'écorché dans le cadre de l'anatomie artistique, qui s'impose comme un exercice académique pratiqué dans les écoles des Beaux-Arts[10], en complément de la pratique du dessin sur modèle vivant, généralement sous la supervision de médecins[11]. En 1655, Thomas Bartholin écrit un ouvrage traitant de l'écorchement : Anatomia Reformata[12].
-L'observation de l'anatomie et la connaissance des écorchés est visible dans les études réalisées par le peintre Géricault pour son tableau intitulé Le Radeau de La Méduse. L'étude des écorchés se fait soit à travers les planches anatomiques, soit grâce aux sculptures, comme avec les études de Michel Chapuis[13], de David[14] ou les différents dessins d'Odilon Redon[15] d'après l'écorché de Houdon, bras tendu ou en version bras replié, l'Écorché combattant d'Eugène Caudron[16], ou même à partir de sculptures antiques comme le Gladiateur Borghèse ou le Doryphore[17].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours du XIXe siècle, les artistes puis les scientifiques étudient la figure de l'écorché dans le cadre de l'anatomie artistique, qui s'impose comme un exercice académique pratiqué dans les écoles des Beaux-Arts, en complément de la pratique du dessin sur modèle vivant, généralement sous la supervision de médecins. En 1655, Thomas Bartholin écrit un ouvrage traitant de l'écorchement : Anatomia Reformata.
+L'observation de l'anatomie et la connaissance des écorchés est visible dans les études réalisées par le peintre Géricault pour son tableau intitulé Le Radeau de La Méduse. L'étude des écorchés se fait soit à travers les planches anatomiques, soit grâce aux sculptures, comme avec les études de Michel Chapuis, de David ou les différents dessins d'Odilon Redon d'après l'écorché de Houdon, bras tendu ou en version bras replié, l'Écorché combattant d'Eugène Caudron, ou même à partir de sculptures antiques comme le Gladiateur Borghèse ou le Doryphore.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89corchement</t>
+          <t>Écorchement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,17 +599,60 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Peinture
-Le mythe de Marsyas est le sujet de nombreux tableaux dépeignant son supplice qui consiste en un écorchement du satyre par Apollon[18].
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le mythe de Marsyas est le sujet de nombreux tableaux dépeignant son supplice qui consiste en un écorchement du satyre par Apollon.
 La mort de saint Barthélemy a inspiré plusieurs toiles dont Le Martyre de saint Barthélemy, réalisée entre 1640 et 1650 par Pasquale Chiesa, qui montre le saint se faisant à la fois écorcher et crucifier ou bien le Martyre de saint Barthélemy, peint en 1848 par Patritti Fidèle et conservé à Auzet. Dans Le Jugement dernier, Michel Ange représente saint Barthélemy tenant dans sa main son ancienne peau.
 Réalisé en 1498 par Gérard David, Le Jugement de Cambyse représente l'arrestation et l'écorchement à vif du juge persan Sisamnès.
 Dans Les Fresques du Jugement Dernier de la Coupole Cathédrale Santa Maria del Fiore à Florence peinte par Giorgio Vasari et Federico Zuccari, des damnés sont dépeints subissant l'écorchement.
-Planche anatomique : femme enceinte peint en 1765 par Jacques Gautier d'Agoty[19].
+Planche anatomique : femme enceinte peint en 1765 par Jacques Gautier d'Agoty.
 Écorché est une étude de l'épaule reposant sur une table, peinte vers 1805 par Charles Landseer
 Peint entre 1800 et 1808 par Francisco de Goya, Cannibales préparant leurs victimes montre un homme écorchant sa victime suspendue par les pieds la tête en bas.
-Réalisée en 1886 par Vincent Van Gogh, Écorché agenouillé est une étude d'après un plâtre de l'écorché de Michel-Ange.
-Cinéma
-1919 : Un reportage tragique de Irvin Willat, le personnage principal se venge d'un capitaine de sous-marin allemand en l'écorchant vif.
+Réalisée en 1886 par Vincent Van Gogh, Écorché agenouillé est une étude d'après un plâtre de l'écorché de Michel-Ange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1919 : Un reportage tragique de Irvin Willat, le personnage principal se venge d'un capitaine de sous-marin allemand en l'écorchant vif.
 1934 : Le Chat noir, vers la fin du film le Docteur Vitus Werdegast commence à écorcher Hjalmar Poelzig.
 1970 : Les Dynamiteros, au début du film l'épouse du capitaine Victor Kaleb est écorchée vive par les Apaches.
 1982 : Human lanterns, le tueur écorche ses victimes pour faire des lanternes avec leurs peaux.
@@ -618,9 +677,47 @@
 2011 : Hostel, chapitre III de Scott Spiegel, un homme se fait enlever la peau du visage.
 2008 : Return to Sleepaway Camp, à la fin du film, Michael, dont le passe-temps était de dépecer des grenouilles, est retrouvé écorché.
 2020 : Hunter Hunter, l'un des personnages principaux écorche le visage et le haut du corps de l'homme qui a assassiné son mari et sa fille.
-2023 : Blood &amp; Gold de Peter Thorwarth, le lieutenant colonel von Starnfeld dissimule une partie de son visage dont la peau est arrachée.
-Télévision
-Série
+2023 : Blood &amp; Gold de Peter Thorwarth, le lieutenant colonel von Starnfeld dissimule une partie de son visage dont la peau est arrachée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série
 1994 : Simpson Horror Show V, à la fin de l'épisode la Famille Simpson perd sa peau après avoir été en contact avec du gaz.
 1997 : Buffy contre les vampires, au cours d'un épisode un jeune homme se fait écorcher vif dans les bois et dans un autre épisode un démon mange la peau de ses victimes.
 2005 : Esprits Criminels dans l'épisode La voix des sages, un groupe d'étudiants mexicains se fait écorcher.
@@ -635,38 +732,340 @@
 2014 :
 Gotham, après la mort apparente de Jeremiah Valeska, ses adeptes lui retirent la peau du visage.
 Simpson Horror Show XXV, Bart Simpson se fait arracher la peau dans l'école de l'enfer.
-2017 : Happy! dans l'épisode Il faut sauver la fête de Pâques, Scooter Sterling se fait écorcher vif.
-Sculpture
-Statue
-Marsyas, marbre blanc sculpté en 150 après J.C. et découvert à Rome vers 1617-1619[20].
-Saint Barthélémy écorché marbre réalisé par Marco d'Agrate en 1562, conservé à la cathédrale de Milan[21].
-Apollon écorchant Marsyas par Antonio Corradini[22].
+2017 : Happy! dans l'épisode Il faut sauver la fête de Pâques, Scooter Sterling se fait écorcher vif.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sculpture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Statue</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Marsyas, marbre blanc sculpté en 150 après J.C. et découvert à Rome vers 1617-1619.
+Saint Barthélémy écorché marbre réalisé par Marco d'Agrate en 1562, conservé à la cathédrale de Milan.
+Apollon écorchant Marsyas par Antonio Corradini.
 L'écorché bras levé de Jean-Antoine Houdon en 1767, conservé au musée Fabre de Montpellier.
-Écorché dit de Michel-Ange, plâtre découvert au XIXe, conservé au musée Gustave-Moreau.
-Littérature
-Bande dessinée
-1972 : Dans la série pour adulte Genius, le méchant se déguise avec un costume d'écorché[23].
+Écorché dit de Michel-Ange, plâtre découvert au XIXe, conservé au musée Gustave-Moreau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1972 : Dans la série pour adulte Genius, le méchant se déguise avec un costume d'écorché.
 1986 : Dans Watchmen, le Docteur Manhattan apparait sans peau les jours suivant son incident.
 Dans l'Univers Marvel, le personnage de Crâne rouge n'a plus sa peau d'origine à la suite d'un écorchement.
 2008 : Dans Joker de Brian Azzarello et Lee Bermejo, lorsque le Joker revient dans son bar, il fait écorcher un de ses subordonnés, sans toucher à la tête. Tout au long de Batman: Death of the Family, le Joker a la peau du visage retirée pour montrer que même sans son masque, il continue de rire.
 2011 : Au début de Clive Barker's Hellraiser de Christopher Monfette et Clive Barkern, un prêtre se fait écorcher vivant.
 2015 : Dans Harrow County Le garçon sans peau est le familier muet d'Emmy, qui transporte sa peau dans sa sacoche, lui chuchotant des secrets.
 2018 : Dans Batman : Damned de Brian Azzarello, le personnage de Deadman apparait avec la peau écorché.
-2020 : Dans le tome 2 Dagon de la série Les Licteurs d'Olivier Richard et Weilin Yang, des bacchantes torturent des soldats romains, dont l'écorchement, sous la supervision de Dionysos.
-Encyclopédie
-Dans son Encyclopédie, Diderot figure un personnage masculin ayant subi un écorchement pour montrer son anatomie[24].
-Enluminure
-Réalisée en 1467, l'enluminure Martyre des sept frères dépeint un groupe de jeunes garçons se faisant écorcher les jambes[25].
-Manga
-Dans L’Attaque des Titans de Hajime Isayama, les Titans sont des créatures gigantesques, certains d'entre eux ont la peau entièrement retirée.
-Poésie
-Dans les Métamorphoses, Ovide décrit en détails l'écorchement d'un homme[26].
-Une partie des écrits de Denis Vanier,portant sur le discours médical dans l’œuvre poétique, aborde l'écorchement[27].
-Nouvelle
-Dans La Main d'écorché (1875), Guy de Maupassant met en scène un jeune homme qui devient le propriétaire d'une main d'écorché[28].
-En 1894, Alphonse Allais écrit Un rajah qui s’embête (conte d'Extrême-Orient) où un rajah ordonne à une danseuse de se dévêtir entièrement jusqu'à ce qu'il ordonne qu'on lui retire aussi sa peau[29].
-Roman
-1931 : Dans Gog de Giovanni Papini, un ancien bourreau explique avec nostalgie son regret que l'écorchement ne soit plus pratiqué et se remémore les moments où il pratiquait cette technique.
+2020 : Dans le tome 2 Dagon de la série Les Licteurs d'Olivier Richard et Weilin Yang, des bacchantes torturent des soldats romains, dont l'écorchement, sous la supervision de Dionysos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Encyclopédie</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans son Encyclopédie, Diderot figure un personnage masculin ayant subi un écorchement pour montrer son anatomie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Enluminure</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Réalisée en 1467, l'enluminure Martyre des sept frères dépeint un groupe de jeunes garçons se faisant écorcher les jambes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans L’Attaque des Titans de Hajime Isayama, les Titans sont des créatures gigantesques, certains d'entre eux ont la peau entièrement retirée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dans les Métamorphoses, Ovide décrit en détails l'écorchement d'un homme.
+Une partie des écrits de Denis Vanier,portant sur le discours médical dans l’œuvre poétique, aborde l'écorchement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Dans La Main d'écorché (1875), Guy de Maupassant met en scène un jeune homme qui devient le propriétaire d'une main d'écorché.
+En 1894, Alphonse Allais écrit Un rajah qui s’embête (conte d'Extrême-Orient) où un rajah ordonne à une danseuse de se dévêtir entièrement jusqu'à ce qu'il ordonne qu'on lui retire aussi sa peau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écorchement</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89corchement</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1931 : Dans Gog de Giovanni Papini, un ancien bourreau explique avec nostalgie son regret que l'écorchement ne soit plus pratiqué et se remémore les moments où il pratiquait cette technique.
 1981 : Dans The Anatomy of Desire de John Theureux, un homme qui a été écorché est toujours en vie.
 1985 : Dans La Flûte ensorceleuse de Nancy Kress, il est expliqué qu'à Veliano, la mort par écorchement est réservée aux envoûteurs.
 1988 : Dans Le Silence des agneaux de Thomas Harris, le tueur n'écorche pas entièrement ses victimes mais attaque soit leurs cuisses soit leur dos.
